--- a/biology/Botanique/Psathyrotes_ramosissima/Psathyrotes_ramosissima.xlsx
+++ b/biology/Botanique/Psathyrotes_ramosissima/Psathyrotes_ramosissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psathyrotes ramosissima est une espèce de plantes à fleurs de la famille des Asteraceae.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante forme des touffes basses, arrondies et aplaties, de 5 à 12,5 cm de hauteur. Les feuilles veloutées et compactes s'emboîtent et l'ensemble a un aspect en carapace de tortue, où les feuilles figureraient les écailles. Ces dernières mesurent environ 2 cm de longueur ; elles sont épaisses, arrondies, aux nervures bien visibles et leur marge est grossièrement dentelée. L'épais velours les recouvrant leur confère une coloration vert-gris pâle. Toute la plante dégage une odeur de térébenthine[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juin.
-L'inflorescence est un capitule d'environ 6 mm de largeur, tenu érigé juste au-dessus des feuilles. La fleur est constituée d'un involucre comprenant 5 bractées veloutées, et de nombreux fleurons ligulés (cette espèce est dite "liguliflore") jaunes[1].
-Le fruit est un akène fortement couvert de duvet soyeux, prolongé de soies formant un pappus de couleur brun-jaune.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante forme des touffes basses, arrondies et aplaties, de 5 à 12,5 cm de hauteur. Les feuilles veloutées et compactes s'emboîtent et l'ensemble a un aspect en carapace de tortue, où les feuilles figureraient les écailles. Ces dernières mesurent environ 2 cm de longueur ; elles sont épaisses, arrondies, aux nervures bien visibles et leur marge est grossièrement dentelée. L'épais velours les recouvrant leur confère une coloration vert-gris pâle. Toute la plante dégage une odeur de térébenthine.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juin.
+L'inflorescence est un capitule d'environ 6 mm de largeur, tenu érigé juste au-dessus des feuilles. La fleur est constituée d'un involucre comprenant 5 bractées veloutées, et de nombreux fleurons ligulés (cette espèce est dite "liguliflore") jaunes.
+Le fruit est un akène fortement couvert de duvet soyeux, prolongé de soies formant un pappus de couleur brun-jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Psathyrotes_ramosissima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psathyrotes_ramosissima</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur les plaines et talus des déserts du sud-ouest des États-Unis (Californie, Utah, Arizona) et du nord du Mexique.
 </t>
